--- a/email.xlsx
+++ b/email.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
   <si>
     <t>email</t>
   </si>
@@ -166,6 +166,24 @@
   </si>
   <si>
     <t>rh@hinove.com</t>
+  </si>
+  <si>
+    <t>curriculo@epema.com.br</t>
+  </si>
+  <si>
+    <t>vagas@durapets.com.br</t>
+  </si>
+  <si>
+    <t>josiane.antonio@ldc.com</t>
+  </si>
+  <si>
+    <t>vagas@cavan.com.br</t>
+  </si>
+  <si>
+    <t>rhararaquara@raizen.com</t>
+  </si>
+  <si>
+    <t>rh@adslab.com.br</t>
   </si>
 </sst>
 </file>
@@ -497,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A50"/>
+  <dimension ref="A1:A57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,6 +774,41 @@
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -809,8 +862,15 @@
     <hyperlink ref="A48" r:id="rId47"/>
     <hyperlink ref="A49" r:id="rId48"/>
     <hyperlink ref="A50" r:id="rId49"/>
+    <hyperlink ref="A51" r:id="rId50"/>
+    <hyperlink ref="A52" r:id="rId51"/>
+    <hyperlink ref="A53" r:id="rId52"/>
+    <hyperlink ref="A54" r:id="rId53"/>
+    <hyperlink ref="A55" r:id="rId54"/>
+    <hyperlink ref="A56" r:id="rId55"/>
+    <hyperlink ref="A57" r:id="rId56"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId50"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId57"/>
 </worksheet>
 </file>
--- a/email.xlsx
+++ b/email.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>email</t>
   </si>
@@ -28,162 +28,6 @@
   </si>
   <si>
     <t>riatoso2@gmail.com</t>
-  </si>
-  <si>
-    <t>adm@darho.com.br</t>
-  </si>
-  <si>
-    <t>rh@homedock.com.br</t>
-  </si>
-  <si>
-    <t>vagas@macorganizacional.com.br</t>
-  </si>
-  <si>
-    <t>oportunidadesrecrutarh@gmail.com</t>
-  </si>
-  <si>
-    <t>rh@serquimica.com.br</t>
-  </si>
-  <si>
-    <t>rh@jsgrupo.com</t>
-  </si>
-  <si>
-    <t>rh@grupodigitalsaude.com.br</t>
-  </si>
-  <si>
-    <t>rh.recrutamentoararaquara@gmail.com</t>
-  </si>
-  <si>
-    <t>selecao2@grupoprovac.com.br</t>
-  </si>
-  <si>
-    <t>vagas@alpack.com.br</t>
-  </si>
-  <si>
-    <t>rh@shx.com.br</t>
-  </si>
-  <si>
-    <t>rh@tita.com.br</t>
-  </si>
-  <si>
-    <t>vagas@jnmoura.com.br</t>
-  </si>
-  <si>
-    <t>vagas.hyundairotem@outlook.com</t>
-  </si>
-  <si>
-    <t>selecaovarejo@wcabrasil.com.br</t>
-  </si>
-  <si>
-    <t>recrutamento.rao@resolv.com.br</t>
-  </si>
-  <si>
-    <t>rh@furacaopet.com.br</t>
-  </si>
-  <si>
-    <t>rh@bigdutchman.com.br</t>
-  </si>
-  <si>
-    <t>ger.rh@ahhbb.org.br</t>
-  </si>
-  <si>
-    <t>noeni.sandrini@grupobandeirantes.com.br</t>
-  </si>
-  <si>
-    <t>dp@eyetec.com.br</t>
-  </si>
-  <si>
-    <t>recrutamento@cambuhy.com.br</t>
-  </si>
-  <si>
-    <t>rh@polimetal.com.br</t>
-  </si>
-  <si>
-    <t>tgm-curiculo@weg.net</t>
-  </si>
-  <si>
-    <t>recutamento@essencialnutricao.com.br</t>
-  </si>
-  <si>
-    <t>recrutamento@jobterceirizacao.com.br</t>
-  </si>
-  <si>
-    <t>vagades@rissicontabilidade.com.br</t>
-  </si>
-  <si>
-    <t>carol.ventura@visualsystems.com.br</t>
-  </si>
-  <si>
-    <t>rh2021contrata@gmail.com</t>
-  </si>
-  <si>
-    <t>recrutamento@gsinima.com.br</t>
-  </si>
-  <si>
-    <t>recrutamento@colomboagroindustria.com.br</t>
-  </si>
-  <si>
-    <t>luciana@eventosrh.com.br</t>
-  </si>
-  <si>
-    <t>pessoas@stepwise.com.br</t>
-  </si>
-  <si>
-    <t>rhsimber@gmail.com</t>
-  </si>
-  <si>
-    <t>vagas.rc.sc@adoro.com.br</t>
-  </si>
-  <si>
-    <t>rh@route66.com.br</t>
-  </si>
-  <si>
-    <t>vagas@movemais.com</t>
-  </si>
-  <si>
-    <t>vagas@medibras.com.br</t>
-  </si>
-  <si>
-    <t>recrutamento@newstandard.com.br</t>
-  </si>
-  <si>
-    <t>sinergiadho@outlook.com.br</t>
-  </si>
-  <si>
-    <t>rh@supley.com.br</t>
-  </si>
-  <si>
-    <t>ciee.araraquara@ciee.ong.br</t>
-  </si>
-  <si>
-    <t>145.selecao@gmail.com</t>
-  </si>
-  <si>
-    <t>rh@covizzigestao.com.br</t>
-  </si>
-  <si>
-    <t>recrutamentosp@koandina.com</t>
-  </si>
-  <si>
-    <t>rh@hinove.com</t>
-  </si>
-  <si>
-    <t>curriculo@epema.com.br</t>
-  </si>
-  <si>
-    <t>vagas@durapets.com.br</t>
-  </si>
-  <si>
-    <t>josiane.antonio@ldc.com</t>
-  </si>
-  <si>
-    <t>vagas@cavan.com.br</t>
-  </si>
-  <si>
-    <t>rhararaquara@raizen.com</t>
-  </si>
-  <si>
-    <t>rh@adslab.com.br</t>
   </si>
 </sst>
 </file>
@@ -515,10 +359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A57"/>
+  <dimension ref="A1:A72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,335 +386,218 @@
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A4" s="1"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A5" s="1"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="A6" s="1"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A7" s="1"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A8" s="1"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A9" s="1"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A10" s="1"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A11" s="1"/>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A13" s="1"/>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A14" s="1"/>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A15" s="1"/>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="A17" s="1"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="A18" s="1"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="A19" s="2"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="A20" s="2"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="A21" s="2"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="A22" s="2"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="A23" s="2"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="A24" s="2"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="A25" s="2"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="A26" s="2"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="A27" s="2"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A28" s="1"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A29" s="1"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A30" s="1"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="A31" s="1"/>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="A32" s="1"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A33" s="1"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="A34" s="1"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="A35" s="1"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="A36" s="1"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="A37" s="1"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="A38" s="1"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A39" s="1"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="A40" s="1"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="A41" s="1"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="A42" s="1"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="A43" s="1"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="A44" s="1"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="A45" s="1"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="A46" s="1"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="A47" s="1"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="A48" s="1"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="A49" s="1"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A50" s="1"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="A51" s="1"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="A52" s="1"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="A53" s="1"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="A54" s="1"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A55" s="1"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="A56" s="1"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="A57" s="1"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="A7" r:id="rId6"/>
-    <hyperlink ref="A8" r:id="rId7"/>
-    <hyperlink ref="A9" r:id="rId8"/>
-    <hyperlink ref="A10" r:id="rId9"/>
-    <hyperlink ref="A11" r:id="rId10"/>
-    <hyperlink ref="A12" r:id="rId11"/>
-    <hyperlink ref="A13" r:id="rId12"/>
-    <hyperlink ref="A14" r:id="rId13"/>
-    <hyperlink ref="A15" r:id="rId14"/>
-    <hyperlink ref="A16" r:id="rId15"/>
-    <hyperlink ref="A17" r:id="rId16"/>
-    <hyperlink ref="A18" r:id="rId17"/>
-    <hyperlink ref="A19" r:id="rId18"/>
-    <hyperlink ref="A20" r:id="rId19"/>
-    <hyperlink ref="A21" r:id="rId20"/>
-    <hyperlink ref="A22" r:id="rId21"/>
-    <hyperlink ref="A23" r:id="rId22"/>
-    <hyperlink ref="A24" r:id="rId23"/>
-    <hyperlink ref="A25" r:id="rId24"/>
-    <hyperlink ref="A26" r:id="rId25"/>
-    <hyperlink ref="A27" r:id="rId26"/>
-    <hyperlink ref="A28" r:id="rId27"/>
-    <hyperlink ref="A29" r:id="rId28" display="mailto:recrutamento@jobterceirizacao.com.br"/>
-    <hyperlink ref="A30" r:id="rId29"/>
-    <hyperlink ref="A31" r:id="rId30"/>
-    <hyperlink ref="A32" r:id="rId31"/>
-    <hyperlink ref="A33" r:id="rId32"/>
-    <hyperlink ref="A34" r:id="rId33"/>
-    <hyperlink ref="A35" r:id="rId34"/>
-    <hyperlink ref="A36" r:id="rId35" display="mailto:pessoas@stepwise.com.br"/>
-    <hyperlink ref="A37" r:id="rId36"/>
-    <hyperlink ref="A38" r:id="rId37"/>
-    <hyperlink ref="A39" r:id="rId38"/>
-    <hyperlink ref="A40" r:id="rId39"/>
-    <hyperlink ref="A41" r:id="rId40"/>
-    <hyperlink ref="A42" r:id="rId41"/>
-    <hyperlink ref="A43" r:id="rId42"/>
-    <hyperlink ref="A44" r:id="rId43"/>
-    <hyperlink ref="A45" r:id="rId44" display="mailto:ciee.araraquara@ciee.ong.br"/>
-    <hyperlink ref="A46" r:id="rId45"/>
-    <hyperlink ref="A47" r:id="rId46"/>
-    <hyperlink ref="A48" r:id="rId47"/>
-    <hyperlink ref="A49" r:id="rId48"/>
-    <hyperlink ref="A50" r:id="rId49"/>
-    <hyperlink ref="A51" r:id="rId50"/>
-    <hyperlink ref="A52" r:id="rId51"/>
-    <hyperlink ref="A53" r:id="rId52"/>
-    <hyperlink ref="A54" r:id="rId53"/>
-    <hyperlink ref="A55" r:id="rId54"/>
-    <hyperlink ref="A56" r:id="rId55"/>
-    <hyperlink ref="A57" r:id="rId56"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId57"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>